--- a/Documents/일정산출(WBS).xlsx
+++ b/Documents/일정산출(WBS).xlsx
@@ -19,213 +19,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+  <x:si>
+    <x:t>월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>완료일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마크업</x:t>
+  </x:si>
   <x:si>
     <x:t>6M</x:t>
   </x:si>
   <x:si>
+    <x:t>목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자료실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일정표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사소개 - 찾아오시는 길</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 결과 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 - 회원정보변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UX/UI 가이드 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 - 회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 - 비밀번호 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동영상 강의 - 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항/이벤트 - 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 - 아이디 찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항/이벤트 - 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리 페이지 - 회원관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 - 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호 찾기 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사소개 - 회사소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 찾기 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동영상 강의 - 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 - 약관동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문답변 - 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 - 가입완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문답변 - 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>완료 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디어 기획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면설계서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사이트맵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정책정의서</x:t>
+  </x:si>
+  <x:si>
     <x:t>로그인 테스트</x:t>
   </x:si>
   <x:si>
-    <x:t>사이트맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완료 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디어 기획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정책정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면설계서</x:t>
-  </x:si>
-  <x:si>
     <x:t>정보흐름도</x:t>
   </x:si>
   <x:si>
-    <x:t>비밀번호 찾기 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마크업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완료일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일정표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자료실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문답변 - 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 - 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개 - 회사소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문답변 - 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 찾기 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동영상 강의 - 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 - 가입완료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 - 약관동의</x:t>
+    <x:t>Work Breakdown Structure</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UX/UI 가이드 제작 (사용자)</x:t>
   </x:si>
   <x:si>
     <x:t>UX/UI 가이드 제작 (개발자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UX/UI 가이드 제작 (사용자)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 결과 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 - 비밀번호 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항/이벤트 - 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동영상 강의 - 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 - 회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UX/UI 가이드 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항/이벤트 - 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 - 회원정보변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 - 아이디 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리 페이지 - 회원관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개 - 찾아오시는 길</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Work Breakdown Structure</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1330,10 +1327,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:AQ45"/>
+  <x:dimension ref="B2:AJ45"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C8" activeCellId="0" sqref="C8:C8"/>
+      <x:selection activeCell="N7" activeCellId="0" sqref="N7:N7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="4.5" defaultRowHeight="16.399999999999999"/>
@@ -1343,43 +1340,43 @@
     <x:col min="3" max="3" width="25.75" style="9" customWidth="1"/>
     <x:col min="4" max="6" width="13.75" style="2" customWidth="1"/>
     <x:col min="7" max="8" width="6.5" style="2" customWidth="1"/>
-    <x:col min="9" max="51" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="52" max="16384" width="4.5" style="2"/>
+    <x:col min="9" max="44" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="45" max="16384" width="4.5" style="2"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="2:43">
+    <x:row r="2" spans="2:36">
       <x:c r="B2" s="15" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C2" s="15"/>
       <x:c r="D2" s="15"/>
       <x:c r="E2" s="15"/>
       <x:c r="F2" s="15"/>
       <x:c r="G2" s="6" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H2" s="12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I2" s="18" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H2" s="12" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="I2" s="18" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J2" s="19"/>
-      <x:c r="K2" s="19"/>
-      <x:c r="L2" s="19"/>
-      <x:c r="M2" s="19"/>
-      <x:c r="N2" s="19"/>
-      <x:c r="O2" s="19"/>
-      <x:c r="P2" s="19"/>
+      <x:c r="J2" s="18"/>
+      <x:c r="K2" s="18"/>
+      <x:c r="L2" s="18"/>
+      <x:c r="M2" s="18"/>
+      <x:c r="N2" s="18"/>
+      <x:c r="O2" s="18"/>
+      <x:c r="P2" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="Q2" s="19"/>
       <x:c r="R2" s="19"/>
       <x:c r="S2" s="19"/>
       <x:c r="T2" s="19"/>
       <x:c r="U2" s="19"/>
-      <x:c r="V2" s="20"/>
-      <x:c r="W2" s="19" t="s">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="V2" s="19"/>
+      <x:c r="W2" s="19"/>
       <x:c r="X2" s="19"/>
       <x:c r="Y2" s="19"/>
       <x:c r="Z2" s="19"/>
@@ -1392,29 +1389,22 @@
       <x:c r="AG2" s="19"/>
       <x:c r="AH2" s="19"/>
       <x:c r="AI2" s="19"/>
-      <x:c r="AJ2" s="19"/>
-      <x:c r="AK2" s="19"/>
-      <x:c r="AL2" s="19"/>
-      <x:c r="AM2" s="19"/>
-      <x:c r="AN2" s="19"/>
-      <x:c r="AO2" s="19"/>
-      <x:c r="AP2" s="19"/>
-      <x:c r="AQ2" s="20"/>
-    </x:row>
-    <x:row r="3" spans="2:43">
+      <x:c r="AJ2" s="20"/>
+    </x:row>
+    <x:row r="3" spans="2:36">
       <x:c r="B3" s="15"/>
       <x:c r="C3" s="15"/>
       <x:c r="D3" s="15"/>
       <x:c r="E3" s="15"/>
       <x:c r="F3" s="15"/>
       <x:c r="G3" s="6" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H3" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I3" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J3" s="14"/>
       <x:c r="K3" s="14"/>
@@ -1423,7 +1413,7 @@
       <x:c r="N3" s="14"/>
       <x:c r="O3" s="14"/>
       <x:c r="P3" s="14" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q3" s="14"/>
       <x:c r="R3" s="14"/>
@@ -1431,295 +1421,244 @@
       <x:c r="T3" s="14"/>
       <x:c r="U3" s="14"/>
       <x:c r="V3" s="14"/>
-      <x:c r="W3" s="14" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="X3" s="14"/>
-      <x:c r="Y3" s="14"/>
-      <x:c r="Z3" s="14"/>
-      <x:c r="AA3" s="14"/>
-      <x:c r="AB3" s="14"/>
-      <x:c r="AC3" s="14"/>
-      <x:c r="AD3" s="17" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="AE3" s="17"/>
-      <x:c r="AF3" s="17"/>
-      <x:c r="AG3" s="17"/>
-      <x:c r="AH3" s="17"/>
-      <x:c r="AI3" s="17"/>
-      <x:c r="AJ3" s="17"/>
-      <x:c r="AK3" s="18" t="s">
+      <x:c r="W3" s="17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="X3" s="17"/>
+      <x:c r="Y3" s="17"/>
+      <x:c r="Z3" s="17"/>
+      <x:c r="AA3" s="17"/>
+      <x:c r="AB3" s="17"/>
+      <x:c r="AC3" s="17"/>
+      <x:c r="AD3" s="18" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="AE3" s="19"/>
+      <x:c r="AF3" s="19"/>
+      <x:c r="AG3" s="19"/>
+      <x:c r="AH3" s="19"/>
+      <x:c r="AI3" s="19"/>
+      <x:c r="AJ3" s="20"/>
+    </x:row>
+    <x:row r="4" spans="2:36">
+      <x:c r="B4" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="16" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E4" s="16" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F4" s="16" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G4" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H4" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I4" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J4" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K4" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L4" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M4" s="3" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="AL3" s="19"/>
-      <x:c r="AM3" s="19"/>
-      <x:c r="AN3" s="19"/>
-      <x:c r="AO3" s="19"/>
-      <x:c r="AP3" s="19"/>
-      <x:c r="AQ3" s="20"/>
-    </x:row>
-    <x:row r="4" spans="2:43">
-      <x:c r="B4" s="16" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C4" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D4" s="16" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E4" s="16" t="s">
+      <x:c r="N4" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O4" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F4" s="16" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G4" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H4" s="6" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I4" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="J4" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="K4" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L4" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="M4" s="3" t="s">
+      <x:c r="P4" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q4" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="R4" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S4" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="N4" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="O4" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="P4" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="Q4" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="R4" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="S4" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="T4" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="U4" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V4" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="W4" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X4" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="Y4" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Z4" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="U4" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="V4" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="W4" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="X4" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="Y4" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Z4" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="AA4" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="AB4" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="AC4" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="AD4" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AE4" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="AF4" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="AG4" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="AB4" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="AC4" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="AD4" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="AE4" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AF4" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="AG4" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="AH4" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="AI4" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="AJ4" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="AK4" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="AL4" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AM4" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="AN4" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="AO4" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="AP4" s="10" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="AQ4" s="11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:43">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="AI4" s="10" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="AJ4" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:36">
       <x:c r="B5" s="16"/>
       <x:c r="C5" s="16"/>
       <x:c r="D5" s="16"/>
       <x:c r="E5" s="16"/>
       <x:c r="F5" s="16"/>
       <x:c r="G5" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H5" s="6" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I5" s="3">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J5" s="3">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K5" s="3">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L5" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M5" s="3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N5" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O5" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="P5" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q5" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="R5" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="S5" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="T5" s="3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="U5" s="3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="V5" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="W5" s="3">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="X5" s="3">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="Y5" s="3">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="Z5" s="3">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="AA5" s="3">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="AB5" s="3">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="AC5" s="3">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H5" s="6" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I5" s="3">
+      <x:c r="AD5" s="3">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="AE5" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="AF5" s="3">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AG5" s="3">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="J5" s="3">
+      <x:c r="AH5" s="3">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="K5" s="3">
+      <x:c r="AI5" s="3">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="L5" s="3">
+      <x:c r="AJ5" s="3">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="M5" s="3">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N5" s="3">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O5" s="3">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="P5" s="3">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="Q5" s="3">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="R5" s="3">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="S5" s="3">
+    </x:row>
+    <x:row r="6" spans="2:36">
+      <x:c r="B6" s="14" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C6" s="8" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D6" s="4">
+        <x:v>45075</x:v>
+      </x:c>
+      <x:c r="E6" s="4">
+        <x:v>45079</x:v>
+      </x:c>
+      <x:c r="F6" s="3" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="T5" s="3">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="U5" s="3">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="V5" s="3">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="W5" s="3">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="X5" s="3">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="Y5" s="3">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Z5" s="3">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="AA5" s="3">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="AB5" s="3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="AC5" s="3">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="AD5" s="3">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AE5" s="3">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="AF5" s="3">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="AG5" s="3">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="AH5" s="3">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AI5" s="3">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="AJ5" s="3">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="AK5" s="3">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="AL5" s="3">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="AM5" s="3">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AN5" s="3">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="AO5" s="3">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="AP5" s="3">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="AQ5" s="3">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="2:43">
-      <x:c r="B6" s="14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C6" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D6" s="4">
-        <x:v>45019</x:v>
-      </x:c>
-      <x:c r="E6" s="4">
-        <x:v>45021</x:v>
-      </x:c>
-      <x:c r="F6" s="3" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="3"/>
       <x:c r="H6" s="3"/>
@@ -1728,8 +1667,8 @@
       <x:c r="K6" s="13"/>
       <x:c r="L6" s="13"/>
       <x:c r="M6" s="13"/>
-      <x:c r="N6" s="13"/>
-      <x:c r="O6" s="7"/>
+      <x:c r="N6" s="3"/>
+      <x:c r="O6" s="3"/>
       <x:c r="P6" s="3"/>
       <x:c r="Q6" s="3"/>
       <x:c r="R6" s="3"/>
@@ -1751,18 +1690,11 @@
       <x:c r="AH6" s="3"/>
       <x:c r="AI6" s="7"/>
       <x:c r="AJ6" s="7"/>
-      <x:c r="AK6" s="3"/>
-      <x:c r="AL6" s="3"/>
-      <x:c r="AM6" s="3"/>
-      <x:c r="AN6" s="3"/>
-      <x:c r="AO6" s="3"/>
-      <x:c r="AP6" s="7"/>
-      <x:c r="AQ6" s="7"/>
-    </x:row>
-    <x:row r="7" spans="2:43" s="2" customFormat="1">
+    </x:row>
+    <x:row r="7" spans="2:36" s="2" customFormat="1">
       <x:c r="B7" s="14"/>
       <x:c r="C7" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D7" s="4"/>
       <x:c r="E7" s="4"/>
@@ -1772,12 +1704,12 @@
       <x:c r="I7" s="3"/>
       <x:c r="J7" s="3"/>
       <x:c r="K7" s="3"/>
-      <x:c r="L7" s="13"/>
-      <x:c r="M7" s="13"/>
-      <x:c r="N7" s="13"/>
-      <x:c r="O7" s="13"/>
-      <x:c r="P7" s="13"/>
-      <x:c r="Q7" s="13"/>
+      <x:c r="L7" s="3"/>
+      <x:c r="M7" s="3"/>
+      <x:c r="N7" s="3"/>
+      <x:c r="O7" s="3"/>
+      <x:c r="P7" s="3"/>
+      <x:c r="Q7" s="3"/>
       <x:c r="R7" s="3"/>
       <x:c r="S7" s="3"/>
       <x:c r="T7" s="3"/>
@@ -1797,20 +1729,15 @@
       <x:c r="AH7" s="3"/>
       <x:c r="AI7" s="7"/>
       <x:c r="AJ7" s="7"/>
-      <x:c r="AK7" s="3"/>
-      <x:c r="AL7" s="3"/>
-      <x:c r="AM7" s="3"/>
-      <x:c r="AN7" s="3"/>
-      <x:c r="AO7" s="3"/>
-      <x:c r="AP7" s="7"/>
-      <x:c r="AQ7" s="7"/>
-    </x:row>
-    <x:row r="8" spans="2:43" s="2" customFormat="1">
+    </x:row>
+    <x:row r="8" spans="2:36" s="2" customFormat="1">
       <x:c r="B8" s="14"/>
       <x:c r="C8" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D8" s="4"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D8" s="4">
+        <x:v>45080</x:v>
+      </x:c>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="3"/>
       <x:c r="G8" s="3"/>
@@ -1820,7 +1747,7 @@
       <x:c r="K8" s="3"/>
       <x:c r="L8" s="3"/>
       <x:c r="M8" s="3"/>
-      <x:c r="N8" s="7"/>
+      <x:c r="N8" s="13"/>
       <x:c r="O8" s="13"/>
       <x:c r="P8" s="13"/>
       <x:c r="Q8" s="13"/>
@@ -1843,18 +1770,11 @@
       <x:c r="AH8" s="3"/>
       <x:c r="AI8" s="7"/>
       <x:c r="AJ8" s="7"/>
-      <x:c r="AK8" s="3"/>
-      <x:c r="AL8" s="3"/>
-      <x:c r="AM8" s="3"/>
-      <x:c r="AN8" s="3"/>
-      <x:c r="AO8" s="3"/>
-      <x:c r="AP8" s="7"/>
-      <x:c r="AQ8" s="7"/>
-    </x:row>
-    <x:row r="9" spans="2:43">
+    </x:row>
+    <x:row r="9" spans="2:36">
       <x:c r="B9" s="14"/>
       <x:c r="C9" s="8" t="s">
-        <x:v>8</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D9" s="4"/>
       <x:c r="E9" s="4"/>
@@ -1889,18 +1809,11 @@
       <x:c r="AH9" s="3"/>
       <x:c r="AI9" s="7"/>
       <x:c r="AJ9" s="7"/>
-      <x:c r="AK9" s="3"/>
-      <x:c r="AL9" s="3"/>
-      <x:c r="AM9" s="3"/>
-      <x:c r="AN9" s="3"/>
-      <x:c r="AO9" s="3"/>
-      <x:c r="AP9" s="7"/>
-      <x:c r="AQ9" s="7"/>
-    </x:row>
-    <x:row r="10" spans="2:43">
+    </x:row>
+    <x:row r="10" spans="2:36">
       <x:c r="B10" s="14"/>
       <x:c r="C10" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D10" s="4"/>
       <x:c r="E10" s="4"/>
@@ -1935,18 +1848,11 @@
       <x:c r="AH10" s="3"/>
       <x:c r="AI10" s="7"/>
       <x:c r="AJ10" s="7"/>
-      <x:c r="AK10" s="3"/>
-      <x:c r="AL10" s="3"/>
-      <x:c r="AM10" s="3"/>
-      <x:c r="AN10" s="3"/>
-      <x:c r="AO10" s="3"/>
-      <x:c r="AP10" s="7"/>
-      <x:c r="AQ10" s="7"/>
-    </x:row>
-    <x:row r="11" spans="2:43">
+    </x:row>
+    <x:row r="11" spans="2:36">
       <x:c r="B11" s="14"/>
       <x:c r="C11" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D11" s="4"/>
       <x:c r="E11" s="4"/>
@@ -1981,18 +1887,11 @@
       <x:c r="AH11" s="3"/>
       <x:c r="AI11" s="7"/>
       <x:c r="AJ11" s="7"/>
-      <x:c r="AK11" s="3"/>
-      <x:c r="AL11" s="3"/>
-      <x:c r="AM11" s="3"/>
-      <x:c r="AN11" s="3"/>
-      <x:c r="AO11" s="3"/>
-      <x:c r="AP11" s="7"/>
-      <x:c r="AQ11" s="7"/>
-    </x:row>
-    <x:row r="12" spans="2:43">
+    </x:row>
+    <x:row r="12" spans="2:36">
       <x:c r="B12" s="14"/>
       <x:c r="C12" s="8" t="s">
-        <x:v>2</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D12" s="4"/>
       <x:c r="E12" s="4"/>
@@ -2027,18 +1926,11 @@
       <x:c r="AH12" s="3"/>
       <x:c r="AI12" s="7"/>
       <x:c r="AJ12" s="7"/>
-      <x:c r="AK12" s="3"/>
-      <x:c r="AL12" s="3"/>
-      <x:c r="AM12" s="3"/>
-      <x:c r="AN12" s="3"/>
-      <x:c r="AO12" s="3"/>
-      <x:c r="AP12" s="7"/>
-      <x:c r="AQ12" s="7"/>
-    </x:row>
-    <x:row r="13" spans="2:43">
+    </x:row>
+    <x:row r="13" spans="2:36">
       <x:c r="B13" s="14"/>
       <x:c r="C13" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D13" s="4"/>
       <x:c r="E13" s="4"/>
@@ -2073,29 +1965,22 @@
       <x:c r="AH13" s="3"/>
       <x:c r="AI13" s="7"/>
       <x:c r="AJ13" s="7"/>
-      <x:c r="AK13" s="3"/>
-      <x:c r="AL13" s="3"/>
-      <x:c r="AM13" s="3"/>
-      <x:c r="AN13" s="3"/>
-      <x:c r="AO13" s="3"/>
-      <x:c r="AP13" s="7"/>
-      <x:c r="AQ13" s="7"/>
-    </x:row>
-    <x:row r="14" spans="2:43">
+    </x:row>
+    <x:row r="14" spans="2:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D14" s="3"/>
       <x:c r="E14" s="3"/>
       <x:c r="F14" s="3"/>
       <x:c r="G14" s="3"/>
       <x:c r="H14" s="3"/>
-      <x:c r="I14" s="6"/>
-      <x:c r="J14" s="6"/>
-      <x:c r="K14" s="6"/>
+      <x:c r="I14" s="3"/>
+      <x:c r="J14" s="3"/>
+      <x:c r="K14" s="3"/>
       <x:c r="L14" s="3"/>
       <x:c r="M14" s="3"/>
       <x:c r="N14" s="7"/>
@@ -2121,18 +2006,11 @@
       <x:c r="AH14" s="3"/>
       <x:c r="AI14" s="7"/>
       <x:c r="AJ14" s="7"/>
-      <x:c r="AK14" s="3"/>
-      <x:c r="AL14" s="3"/>
-      <x:c r="AM14" s="3"/>
-      <x:c r="AN14" s="3"/>
-      <x:c r="AO14" s="3"/>
-      <x:c r="AP14" s="7"/>
-      <x:c r="AQ14" s="7"/>
-    </x:row>
-    <x:row r="15" spans="2:43">
+    </x:row>
+    <x:row r="15" spans="2:36">
       <x:c r="B15" s="14"/>
       <x:c r="C15" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D15" s="3"/>
       <x:c r="E15" s="3"/>
@@ -2167,18 +2045,11 @@
       <x:c r="AH15" s="3"/>
       <x:c r="AI15" s="7"/>
       <x:c r="AJ15" s="7"/>
-      <x:c r="AK15" s="3"/>
-      <x:c r="AL15" s="3"/>
-      <x:c r="AM15" s="3"/>
-      <x:c r="AN15" s="3"/>
-      <x:c r="AO15" s="3"/>
-      <x:c r="AP15" s="7"/>
-      <x:c r="AQ15" s="7"/>
-    </x:row>
-    <x:row r="16" spans="2:43">
+    </x:row>
+    <x:row r="16" spans="2:36">
       <x:c r="B16" s="14"/>
       <x:c r="C16" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D16" s="3"/>
       <x:c r="E16" s="3"/>
@@ -2213,18 +2084,11 @@
       <x:c r="AH16" s="3"/>
       <x:c r="AI16" s="7"/>
       <x:c r="AJ16" s="7"/>
-      <x:c r="AK16" s="3"/>
-      <x:c r="AL16" s="3"/>
-      <x:c r="AM16" s="3"/>
-      <x:c r="AN16" s="3"/>
-      <x:c r="AO16" s="3"/>
-      <x:c r="AP16" s="7"/>
-      <x:c r="AQ16" s="7"/>
-    </x:row>
-    <x:row r="17" spans="2:43">
+    </x:row>
+    <x:row r="17" spans="2:36">
       <x:c r="B17" s="14"/>
       <x:c r="C17" s="8" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D17" s="3"/>
       <x:c r="E17" s="3"/>
@@ -2259,15 +2123,8 @@
       <x:c r="AH17" s="3"/>
       <x:c r="AI17" s="7"/>
       <x:c r="AJ17" s="7"/>
-      <x:c r="AK17" s="3"/>
-      <x:c r="AL17" s="3"/>
-      <x:c r="AM17" s="3"/>
-      <x:c r="AN17" s="3"/>
-      <x:c r="AO17" s="3"/>
-      <x:c r="AP17" s="7"/>
-      <x:c r="AQ17" s="7"/>
-    </x:row>
-    <x:row r="18" spans="2:43">
+    </x:row>
+    <x:row r="18" spans="2:36">
       <x:c r="B18" s="14"/>
       <x:c r="C18" s="8" t="s">
         <x:v>47</x:v>
@@ -2305,18 +2162,11 @@
       <x:c r="AH18" s="3"/>
       <x:c r="AI18" s="7"/>
       <x:c r="AJ18" s="7"/>
-      <x:c r="AK18" s="3"/>
-      <x:c r="AL18" s="3"/>
-      <x:c r="AM18" s="3"/>
-      <x:c r="AN18" s="3"/>
-      <x:c r="AO18" s="3"/>
-      <x:c r="AP18" s="7"/>
-      <x:c r="AQ18" s="7"/>
-    </x:row>
-    <x:row r="19" spans="2:43">
+    </x:row>
+    <x:row r="19" spans="2:36">
       <x:c r="B19" s="14"/>
       <x:c r="C19" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D19" s="3"/>
       <x:c r="E19" s="3"/>
@@ -2351,18 +2201,11 @@
       <x:c r="AH19" s="3"/>
       <x:c r="AI19" s="7"/>
       <x:c r="AJ19" s="7"/>
-      <x:c r="AK19" s="3"/>
-      <x:c r="AL19" s="3"/>
-      <x:c r="AM19" s="3"/>
-      <x:c r="AN19" s="3"/>
-      <x:c r="AO19" s="3"/>
-      <x:c r="AP19" s="7"/>
-      <x:c r="AQ19" s="7"/>
-    </x:row>
-    <x:row r="20" spans="2:43">
+    </x:row>
+    <x:row r="20" spans="2:36">
       <x:c r="B20" s="14"/>
       <x:c r="C20" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D20" s="3"/>
       <x:c r="E20" s="3"/>
@@ -2397,18 +2240,11 @@
       <x:c r="AH20" s="3"/>
       <x:c r="AI20" s="7"/>
       <x:c r="AJ20" s="7"/>
-      <x:c r="AK20" s="3"/>
-      <x:c r="AL20" s="3"/>
-      <x:c r="AM20" s="3"/>
-      <x:c r="AN20" s="3"/>
-      <x:c r="AO20" s="3"/>
-      <x:c r="AP20" s="7"/>
-      <x:c r="AQ20" s="7"/>
-    </x:row>
-    <x:row r="21" spans="2:43">
+    </x:row>
+    <x:row r="21" spans="2:36">
       <x:c r="B21" s="14"/>
       <x:c r="C21" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D21" s="3"/>
       <x:c r="E21" s="3"/>
@@ -2443,18 +2279,11 @@
       <x:c r="AH21" s="3"/>
       <x:c r="AI21" s="7"/>
       <x:c r="AJ21" s="7"/>
-      <x:c r="AK21" s="3"/>
-      <x:c r="AL21" s="3"/>
-      <x:c r="AM21" s="3"/>
-      <x:c r="AN21" s="3"/>
-      <x:c r="AO21" s="3"/>
-      <x:c r="AP21" s="7"/>
-      <x:c r="AQ21" s="7"/>
-    </x:row>
-    <x:row r="22" spans="2:43">
+    </x:row>
+    <x:row r="22" spans="2:36">
       <x:c r="B22" s="14"/>
       <x:c r="C22" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D22" s="3"/>
       <x:c r="E22" s="3"/>
@@ -2489,18 +2318,11 @@
       <x:c r="AH22" s="3"/>
       <x:c r="AI22" s="7"/>
       <x:c r="AJ22" s="7"/>
-      <x:c r="AK22" s="3"/>
-      <x:c r="AL22" s="3"/>
-      <x:c r="AM22" s="3"/>
-      <x:c r="AN22" s="3"/>
-      <x:c r="AO22" s="3"/>
-      <x:c r="AP22" s="7"/>
-      <x:c r="AQ22" s="7"/>
-    </x:row>
-    <x:row r="23" spans="2:43">
+    </x:row>
+    <x:row r="23" spans="2:36">
       <x:c r="B23" s="14"/>
       <x:c r="C23" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D23" s="3"/>
       <x:c r="E23" s="3"/>
@@ -2535,18 +2357,11 @@
       <x:c r="AH23" s="3"/>
       <x:c r="AI23" s="7"/>
       <x:c r="AJ23" s="7"/>
-      <x:c r="AK23" s="3"/>
-      <x:c r="AL23" s="3"/>
-      <x:c r="AM23" s="3"/>
-      <x:c r="AN23" s="3"/>
-      <x:c r="AO23" s="3"/>
-      <x:c r="AP23" s="7"/>
-      <x:c r="AQ23" s="7"/>
-    </x:row>
-    <x:row r="24" spans="2:43">
+    </x:row>
+    <x:row r="24" spans="2:36">
       <x:c r="B24" s="14"/>
       <x:c r="C24" s="8" t="s">
-        <x:v>67</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D24" s="3"/>
       <x:c r="E24" s="3"/>
@@ -2581,18 +2396,11 @@
       <x:c r="AH24" s="3"/>
       <x:c r="AI24" s="7"/>
       <x:c r="AJ24" s="7"/>
-      <x:c r="AK24" s="3"/>
-      <x:c r="AL24" s="3"/>
-      <x:c r="AM24" s="3"/>
-      <x:c r="AN24" s="3"/>
-      <x:c r="AO24" s="3"/>
-      <x:c r="AP24" s="7"/>
-      <x:c r="AQ24" s="7"/>
-    </x:row>
-    <x:row r="25" spans="2:43">
+    </x:row>
+    <x:row r="25" spans="2:36">
       <x:c r="B25" s="14"/>
       <x:c r="C25" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D25" s="3"/>
       <x:c r="E25" s="3"/>
@@ -2627,18 +2435,11 @@
       <x:c r="AH25" s="3"/>
       <x:c r="AI25" s="7"/>
       <x:c r="AJ25" s="7"/>
-      <x:c r="AK25" s="3"/>
-      <x:c r="AL25" s="3"/>
-      <x:c r="AM25" s="3"/>
-      <x:c r="AN25" s="3"/>
-      <x:c r="AO25" s="3"/>
-      <x:c r="AP25" s="7"/>
-      <x:c r="AQ25" s="7"/>
-    </x:row>
-    <x:row r="26" spans="2:43">
+    </x:row>
+    <x:row r="26" spans="2:36">
       <x:c r="B26" s="14"/>
       <x:c r="C26" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D26" s="3"/>
       <x:c r="E26" s="3"/>
@@ -2673,18 +2474,11 @@
       <x:c r="AH26" s="3"/>
       <x:c r="AI26" s="7"/>
       <x:c r="AJ26" s="7"/>
-      <x:c r="AK26" s="3"/>
-      <x:c r="AL26" s="3"/>
-      <x:c r="AM26" s="3"/>
-      <x:c r="AN26" s="3"/>
-      <x:c r="AO26" s="3"/>
-      <x:c r="AP26" s="7"/>
-      <x:c r="AQ26" s="7"/>
-    </x:row>
-    <x:row r="27" spans="2:43">
+    </x:row>
+    <x:row r="27" spans="2:36">
       <x:c r="B27" s="14"/>
       <x:c r="C27" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D27" s="3"/>
       <x:c r="E27" s="3"/>
@@ -2719,18 +2513,11 @@
       <x:c r="AH27" s="3"/>
       <x:c r="AI27" s="7"/>
       <x:c r="AJ27" s="7"/>
-      <x:c r="AK27" s="3"/>
-      <x:c r="AL27" s="3"/>
-      <x:c r="AM27" s="3"/>
-      <x:c r="AN27" s="3"/>
-      <x:c r="AO27" s="3"/>
-      <x:c r="AP27" s="7"/>
-      <x:c r="AQ27" s="7"/>
-    </x:row>
-    <x:row r="28" spans="2:43">
+    </x:row>
+    <x:row r="28" spans="2:36">
       <x:c r="B28" s="14"/>
       <x:c r="C28" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D28" s="3"/>
       <x:c r="E28" s="3"/>
@@ -2765,18 +2552,11 @@
       <x:c r="AH28" s="3"/>
       <x:c r="AI28" s="7"/>
       <x:c r="AJ28" s="7"/>
-      <x:c r="AK28" s="3"/>
-      <x:c r="AL28" s="3"/>
-      <x:c r="AM28" s="3"/>
-      <x:c r="AN28" s="3"/>
-      <x:c r="AO28" s="3"/>
-      <x:c r="AP28" s="7"/>
-      <x:c r="AQ28" s="7"/>
-    </x:row>
-    <x:row r="29" spans="2:43">
+    </x:row>
+    <x:row r="29" spans="2:36">
       <x:c r="B29" s="14"/>
       <x:c r="C29" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D29" s="3"/>
       <x:c r="E29" s="3"/>
@@ -2811,18 +2591,11 @@
       <x:c r="AH29" s="3"/>
       <x:c r="AI29" s="7"/>
       <x:c r="AJ29" s="7"/>
-      <x:c r="AK29" s="3"/>
-      <x:c r="AL29" s="3"/>
-      <x:c r="AM29" s="3"/>
-      <x:c r="AN29" s="3"/>
-      <x:c r="AO29" s="3"/>
-      <x:c r="AP29" s="7"/>
-      <x:c r="AQ29" s="7"/>
-    </x:row>
-    <x:row r="30" spans="2:43">
+    </x:row>
+    <x:row r="30" spans="2:36">
       <x:c r="B30" s="14"/>
       <x:c r="C30" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D30" s="3"/>
       <x:c r="E30" s="3"/>
@@ -2857,18 +2630,11 @@
       <x:c r="AH30" s="3"/>
       <x:c r="AI30" s="7"/>
       <x:c r="AJ30" s="7"/>
-      <x:c r="AK30" s="3"/>
-      <x:c r="AL30" s="3"/>
-      <x:c r="AM30" s="3"/>
-      <x:c r="AN30" s="3"/>
-      <x:c r="AO30" s="3"/>
-      <x:c r="AP30" s="7"/>
-      <x:c r="AQ30" s="7"/>
-    </x:row>
-    <x:row r="31" spans="2:43">
+    </x:row>
+    <x:row r="31" spans="2:36">
       <x:c r="B31" s="14"/>
       <x:c r="C31" s="8" t="s">
-        <x:v>66</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D31" s="3"/>
       <x:c r="E31" s="3"/>
@@ -2903,18 +2669,11 @@
       <x:c r="AH31" s="3"/>
       <x:c r="AI31" s="7"/>
       <x:c r="AJ31" s="7"/>
-      <x:c r="AK31" s="3"/>
-      <x:c r="AL31" s="3"/>
-      <x:c r="AM31" s="3"/>
-      <x:c r="AN31" s="3"/>
-      <x:c r="AO31" s="3"/>
-      <x:c r="AP31" s="7"/>
-      <x:c r="AQ31" s="7"/>
-    </x:row>
-    <x:row r="32" spans="2:43">
+    </x:row>
+    <x:row r="32" spans="2:36">
       <x:c r="B32" s="14"/>
       <x:c r="C32" s="8" t="s">
-        <x:v>64</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D32" s="3"/>
       <x:c r="E32" s="3"/>
@@ -2949,18 +2708,11 @@
       <x:c r="AH32" s="3"/>
       <x:c r="AI32" s="7"/>
       <x:c r="AJ32" s="7"/>
-      <x:c r="AK32" s="3"/>
-      <x:c r="AL32" s="3"/>
-      <x:c r="AM32" s="3"/>
-      <x:c r="AN32" s="3"/>
-      <x:c r="AO32" s="3"/>
-      <x:c r="AP32" s="7"/>
-      <x:c r="AQ32" s="7"/>
-    </x:row>
-    <x:row r="33" spans="2:43">
+    </x:row>
+    <x:row r="33" spans="2:36">
       <x:c r="B33" s="14"/>
       <x:c r="C33" s="8" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D33" s="3"/>
       <x:c r="E33" s="3"/>
@@ -2995,20 +2747,13 @@
       <x:c r="AH33" s="3"/>
       <x:c r="AI33" s="7"/>
       <x:c r="AJ33" s="7"/>
-      <x:c r="AK33" s="3"/>
-      <x:c r="AL33" s="3"/>
-      <x:c r="AM33" s="3"/>
-      <x:c r="AN33" s="3"/>
-      <x:c r="AO33" s="3"/>
-      <x:c r="AP33" s="7"/>
-      <x:c r="AQ33" s="7"/>
-    </x:row>
-    <x:row r="34" spans="2:43">
+    </x:row>
+    <x:row r="34" spans="2:36">
       <x:c r="B34" s="14" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C34" s="8" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D34" s="3"/>
       <x:c r="E34" s="3"/>
@@ -3017,16 +2762,16 @@
       <x:c r="H34" s="3"/>
       <x:c r="I34" s="3"/>
       <x:c r="J34" s="3"/>
-      <x:c r="K34" s="3"/>
-      <x:c r="L34" s="3"/>
-      <x:c r="M34" s="3"/>
+      <x:c r="K34" s="6"/>
+      <x:c r="L34" s="6"/>
+      <x:c r="M34" s="6"/>
       <x:c r="N34" s="7"/>
       <x:c r="O34" s="7"/>
       <x:c r="P34" s="3"/>
       <x:c r="Q34" s="3"/>
-      <x:c r="R34" s="6"/>
-      <x:c r="S34" s="6"/>
-      <x:c r="T34" s="6"/>
+      <x:c r="R34" s="3"/>
+      <x:c r="S34" s="3"/>
+      <x:c r="T34" s="3"/>
       <x:c r="U34" s="7"/>
       <x:c r="V34" s="7"/>
       <x:c r="W34" s="3"/>
@@ -3043,15 +2788,8 @@
       <x:c r="AH34" s="3"/>
       <x:c r="AI34" s="7"/>
       <x:c r="AJ34" s="7"/>
-      <x:c r="AK34" s="3"/>
-      <x:c r="AL34" s="3"/>
-      <x:c r="AM34" s="3"/>
-      <x:c r="AN34" s="3"/>
-      <x:c r="AO34" s="3"/>
-      <x:c r="AP34" s="7"/>
-      <x:c r="AQ34" s="7"/>
-    </x:row>
-    <x:row r="35" spans="2:43">
+    </x:row>
+    <x:row r="35" spans="2:36">
       <x:c r="B35" s="14"/>
       <x:c r="C35" s="8" t="s">
         <x:v>47</x:v>
@@ -3063,16 +2801,16 @@
       <x:c r="H35" s="3"/>
       <x:c r="I35" s="3"/>
       <x:c r="J35" s="3"/>
-      <x:c r="K35" s="3"/>
-      <x:c r="L35" s="3"/>
-      <x:c r="M35" s="3"/>
+      <x:c r="K35" s="6"/>
+      <x:c r="L35" s="6"/>
+      <x:c r="M35" s="6"/>
       <x:c r="N35" s="7"/>
       <x:c r="O35" s="7"/>
       <x:c r="P35" s="3"/>
       <x:c r="Q35" s="3"/>
-      <x:c r="R35" s="6"/>
-      <x:c r="S35" s="6"/>
-      <x:c r="T35" s="6"/>
+      <x:c r="R35" s="3"/>
+      <x:c r="S35" s="3"/>
+      <x:c r="T35" s="3"/>
       <x:c r="U35" s="7"/>
       <x:c r="V35" s="7"/>
       <x:c r="W35" s="3"/>
@@ -3089,18 +2827,11 @@
       <x:c r="AH35" s="3"/>
       <x:c r="AI35" s="7"/>
       <x:c r="AJ35" s="7"/>
-      <x:c r="AK35" s="3"/>
-      <x:c r="AL35" s="3"/>
-      <x:c r="AM35" s="3"/>
-      <x:c r="AN35" s="3"/>
-      <x:c r="AO35" s="3"/>
-      <x:c r="AP35" s="7"/>
-      <x:c r="AQ35" s="7"/>
-    </x:row>
-    <x:row r="36" spans="2:43">
+    </x:row>
+    <x:row r="36" spans="2:36">
       <x:c r="B36" s="14"/>
       <x:c r="C36" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D36" s="3"/>
       <x:c r="E36" s="3"/>
@@ -3109,16 +2840,16 @@
       <x:c r="H36" s="3"/>
       <x:c r="I36" s="3"/>
       <x:c r="J36" s="3"/>
-      <x:c r="K36" s="3"/>
-      <x:c r="L36" s="3"/>
-      <x:c r="M36" s="3"/>
+      <x:c r="K36" s="6"/>
+      <x:c r="L36" s="6"/>
+      <x:c r="M36" s="6"/>
       <x:c r="N36" s="7"/>
       <x:c r="O36" s="7"/>
       <x:c r="P36" s="3"/>
       <x:c r="Q36" s="3"/>
-      <x:c r="R36" s="6"/>
-      <x:c r="S36" s="6"/>
-      <x:c r="T36" s="6"/>
+      <x:c r="R36" s="3"/>
+      <x:c r="S36" s="3"/>
+      <x:c r="T36" s="3"/>
       <x:c r="U36" s="7"/>
       <x:c r="V36" s="7"/>
       <x:c r="W36" s="3"/>
@@ -3135,18 +2866,11 @@
       <x:c r="AH36" s="3"/>
       <x:c r="AI36" s="7"/>
       <x:c r="AJ36" s="7"/>
-      <x:c r="AK36" s="3"/>
-      <x:c r="AL36" s="3"/>
-      <x:c r="AM36" s="3"/>
-      <x:c r="AN36" s="3"/>
-      <x:c r="AO36" s="3"/>
-      <x:c r="AP36" s="7"/>
-      <x:c r="AQ36" s="7"/>
-    </x:row>
-    <x:row r="37" spans="2:43">
+    </x:row>
+    <x:row r="37" spans="2:36">
       <x:c r="B37" s="14"/>
       <x:c r="C37" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D37" s="3"/>
       <x:c r="E37" s="3"/>
@@ -3155,16 +2879,16 @@
       <x:c r="H37" s="3"/>
       <x:c r="I37" s="3"/>
       <x:c r="J37" s="3"/>
-      <x:c r="K37" s="3"/>
-      <x:c r="L37" s="3"/>
-      <x:c r="M37" s="3"/>
+      <x:c r="K37" s="6"/>
+      <x:c r="L37" s="6"/>
+      <x:c r="M37" s="6"/>
       <x:c r="N37" s="7"/>
       <x:c r="O37" s="7"/>
       <x:c r="P37" s="3"/>
       <x:c r="Q37" s="3"/>
-      <x:c r="R37" s="6"/>
-      <x:c r="S37" s="6"/>
-      <x:c r="T37" s="6"/>
+      <x:c r="R37" s="3"/>
+      <x:c r="S37" s="3"/>
+      <x:c r="T37" s="3"/>
       <x:c r="U37" s="7"/>
       <x:c r="V37" s="7"/>
       <x:c r="W37" s="3"/>
@@ -3181,18 +2905,11 @@
       <x:c r="AH37" s="3"/>
       <x:c r="AI37" s="7"/>
       <x:c r="AJ37" s="7"/>
-      <x:c r="AK37" s="3"/>
-      <x:c r="AL37" s="3"/>
-      <x:c r="AM37" s="3"/>
-      <x:c r="AN37" s="3"/>
-      <x:c r="AO37" s="3"/>
-      <x:c r="AP37" s="7"/>
-      <x:c r="AQ37" s="7"/>
-    </x:row>
-    <x:row r="38" spans="2:43">
+    </x:row>
+    <x:row r="38" spans="2:36">
       <x:c r="B38" s="14"/>
       <x:c r="C38" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D38" s="3"/>
       <x:c r="E38" s="3"/>
@@ -3201,16 +2918,16 @@
       <x:c r="H38" s="3"/>
       <x:c r="I38" s="3"/>
       <x:c r="J38" s="3"/>
-      <x:c r="K38" s="3"/>
-      <x:c r="L38" s="3"/>
-      <x:c r="M38" s="3"/>
+      <x:c r="K38" s="6"/>
+      <x:c r="L38" s="6"/>
+      <x:c r="M38" s="6"/>
       <x:c r="N38" s="7"/>
       <x:c r="O38" s="7"/>
       <x:c r="P38" s="3"/>
       <x:c r="Q38" s="3"/>
-      <x:c r="R38" s="6"/>
-      <x:c r="S38" s="6"/>
-      <x:c r="T38" s="6"/>
+      <x:c r="R38" s="3"/>
+      <x:c r="S38" s="3"/>
+      <x:c r="T38" s="3"/>
       <x:c r="U38" s="7"/>
       <x:c r="V38" s="7"/>
       <x:c r="W38" s="3"/>
@@ -3227,20 +2944,13 @@
       <x:c r="AH38" s="3"/>
       <x:c r="AI38" s="7"/>
       <x:c r="AJ38" s="7"/>
-      <x:c r="AK38" s="3"/>
-      <x:c r="AL38" s="3"/>
-      <x:c r="AM38" s="3"/>
-      <x:c r="AN38" s="3"/>
-      <x:c r="AO38" s="3"/>
-      <x:c r="AP38" s="7"/>
-      <x:c r="AQ38" s="7"/>
-    </x:row>
-    <x:row r="39" spans="2:43">
+    </x:row>
+    <x:row r="39" spans="2:36">
       <x:c r="B39" s="14" t="s">
-        <x:v>44</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C39" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D39" s="3"/>
       <x:c r="E39" s="3"/>
@@ -3275,18 +2985,11 @@
       <x:c r="AH39" s="3"/>
       <x:c r="AI39" s="7"/>
       <x:c r="AJ39" s="7"/>
-      <x:c r="AK39" s="3"/>
-      <x:c r="AL39" s="3"/>
-      <x:c r="AM39" s="3"/>
-      <x:c r="AN39" s="3"/>
-      <x:c r="AO39" s="3"/>
-      <x:c r="AP39" s="7"/>
-      <x:c r="AQ39" s="7"/>
-    </x:row>
-    <x:row r="40" spans="2:43">
+    </x:row>
+    <x:row r="40" spans="2:36">
       <x:c r="B40" s="14"/>
       <x:c r="C40" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D40" s="3"/>
       <x:c r="E40" s="3"/>
@@ -3321,15 +3024,8 @@
       <x:c r="AH40" s="3"/>
       <x:c r="AI40" s="7"/>
       <x:c r="AJ40" s="7"/>
-      <x:c r="AK40" s="3"/>
-      <x:c r="AL40" s="3"/>
-      <x:c r="AM40" s="3"/>
-      <x:c r="AN40" s="3"/>
-      <x:c r="AO40" s="3"/>
-      <x:c r="AP40" s="7"/>
-      <x:c r="AQ40" s="7"/>
-    </x:row>
-    <x:row r="41" spans="2:43">
+    </x:row>
+    <x:row r="41" spans="2:36">
       <x:c r="B41" s="14"/>
       <x:c r="C41" s="8" t="s">
         <x:v>50</x:v>
@@ -3367,18 +3063,11 @@
       <x:c r="AH41" s="3"/>
       <x:c r="AI41" s="7"/>
       <x:c r="AJ41" s="7"/>
-      <x:c r="AK41" s="3"/>
-      <x:c r="AL41" s="3"/>
-      <x:c r="AM41" s="3"/>
-      <x:c r="AN41" s="3"/>
-      <x:c r="AO41" s="3"/>
-      <x:c r="AP41" s="7"/>
-      <x:c r="AQ41" s="7"/>
-    </x:row>
-    <x:row r="42" spans="2:43">
+    </x:row>
+    <x:row r="42" spans="2:36">
       <x:c r="B42" s="14"/>
       <x:c r="C42" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D42" s="3"/>
       <x:c r="E42" s="3"/>
@@ -3413,18 +3102,11 @@
       <x:c r="AH42" s="3"/>
       <x:c r="AI42" s="7"/>
       <x:c r="AJ42" s="7"/>
-      <x:c r="AK42" s="3"/>
-      <x:c r="AL42" s="3"/>
-      <x:c r="AM42" s="3"/>
-      <x:c r="AN42" s="3"/>
-      <x:c r="AO42" s="3"/>
-      <x:c r="AP42" s="7"/>
-      <x:c r="AQ42" s="7"/>
-    </x:row>
-    <x:row r="43" spans="2:43">
+    </x:row>
+    <x:row r="43" spans="2:36">
       <x:c r="B43" s="14"/>
       <x:c r="C43" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D43" s="3"/>
       <x:c r="E43" s="3"/>
@@ -3459,20 +3141,13 @@
       <x:c r="AH43" s="3"/>
       <x:c r="AI43" s="7"/>
       <x:c r="AJ43" s="7"/>
-      <x:c r="AK43" s="3"/>
-      <x:c r="AL43" s="3"/>
-      <x:c r="AM43" s="3"/>
-      <x:c r="AN43" s="3"/>
-      <x:c r="AO43" s="3"/>
-      <x:c r="AP43" s="7"/>
-      <x:c r="AQ43" s="7"/>
-    </x:row>
-    <x:row r="44" spans="2:43">
+    </x:row>
+    <x:row r="44" spans="2:36">
       <x:c r="B44" s="14" t="s">
-        <x:v>62</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C44" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D44" s="3"/>
       <x:c r="E44" s="3"/>
@@ -3507,18 +3182,11 @@
       <x:c r="AH44" s="3"/>
       <x:c r="AI44" s="7"/>
       <x:c r="AJ44" s="7"/>
-      <x:c r="AK44" s="3"/>
-      <x:c r="AL44" s="3"/>
-      <x:c r="AM44" s="3"/>
-      <x:c r="AN44" s="3"/>
-      <x:c r="AO44" s="3"/>
-      <x:c r="AP44" s="7"/>
-      <x:c r="AQ44" s="7"/>
-    </x:row>
-    <x:row r="45" spans="2:43">
+    </x:row>
+    <x:row r="45" spans="2:36">
       <x:c r="B45" s="14"/>
       <x:c r="C45" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D45" s="3"/>
       <x:c r="E45" s="3"/>
@@ -3553,20 +3221,12 @@
       <x:c r="AH45" s="3"/>
       <x:c r="AI45" s="7"/>
       <x:c r="AJ45" s="7"/>
-      <x:c r="AK45" s="3"/>
-      <x:c r="AL45" s="3"/>
-      <x:c r="AM45" s="3"/>
-      <x:c r="AN45" s="3"/>
-      <x:c r="AO45" s="3"/>
-      <x:c r="AP45" s="7"/>
-      <x:c r="AQ45" s="7"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="18">
+  <x:mergeCells count="17">
     <x:mergeCell ref="B34:B38"/>
     <x:mergeCell ref="B39:B43"/>
     <x:mergeCell ref="B44:B45"/>
-    <x:mergeCell ref="I3:O3"/>
     <x:mergeCell ref="B2:F3"/>
     <x:mergeCell ref="B4:B5"/>
     <x:mergeCell ref="C4:C5"/>
@@ -3574,13 +3234,13 @@
     <x:mergeCell ref="E4:E5"/>
     <x:mergeCell ref="F4:F5"/>
     <x:mergeCell ref="B14:B33"/>
+    <x:mergeCell ref="I3:O3"/>
     <x:mergeCell ref="P3:V3"/>
+    <x:mergeCell ref="B6:B13"/>
     <x:mergeCell ref="W3:AC3"/>
-    <x:mergeCell ref="B6:B13"/>
     <x:mergeCell ref="AD3:AJ3"/>
-    <x:mergeCell ref="AK3:AQ3"/>
-    <x:mergeCell ref="I2:V2"/>
-    <x:mergeCell ref="W2:AQ2"/>
+    <x:mergeCell ref="P2:AJ2"/>
+    <x:mergeCell ref="I2:O2"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
